--- a/Photoswitches SI/fulldata.lambda_test.xlsx
+++ b/Photoswitches SI/fulldata.lambda_test.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H81"/>
+  <dimension ref="A1:J81"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -466,6 +466,16 @@
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
+          <t>E (J)</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>E (eV)</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
           <t>mol</t>
         </is>
       </c>
@@ -492,7 +502,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="H2" t="n">
+        <v>4.766906474820144e-19</v>
+      </c>
+      <c r="I2" t="n">
+        <v>2.975269001969569</v>
+      </c>
+      <c r="J2" t="inlineStr">
         <is>
           <t>FC(F)(F)c1cc(cc(C(F)(F)F)c1)N=Nc1c2cccnc2c(cc1)O</t>
         </is>
@@ -516,7 +532,13 @@
       <c r="E3" t="inlineStr"/>
       <c r="F3" t="inlineStr"/>
       <c r="G3" t="inlineStr"/>
-      <c r="H3" t="inlineStr">
+      <c r="H3" t="n">
+        <v>4.981954887218046e-19</v>
+      </c>
+      <c r="I3" t="n">
+        <v>3.109491663712558</v>
+      </c>
+      <c r="J3" t="inlineStr">
         <is>
           <t>CN(C)c1cc(C)c(cc1)N=Nc1c(cc(C)cc1)C</t>
         </is>
@@ -541,10 +563,16 @@
       <c r="F4" t="inlineStr"/>
       <c r="G4" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5.761739130434783e-19</v>
+      </c>
+      <c r="I4" t="n">
+        <v>3.596194706728436</v>
+      </c>
+      <c r="J4" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1ccc(cc1)OC</t>
         </is>
@@ -568,7 +596,13 @@
       <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr"/>
-      <c r="H5" t="inlineStr">
+      <c r="H5" t="n">
+        <v>3.620765027322404e-19</v>
+      </c>
+      <c r="I5" t="n">
+        <v>2.259903777452296</v>
+      </c>
+      <c r="J5" t="inlineStr">
         <is>
           <t>C(C)N(CC)c1c(cc(cc1)N=Nc1c(cc(cc1[N+]([O-])=O)[N+]([O-])=O)Br)OC</t>
         </is>
@@ -592,7 +626,13 @@
       <c r="E6" t="inlineStr"/>
       <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr"/>
-      <c r="H6" t="inlineStr">
+      <c r="H6" t="n">
+        <v>4.84829268292683e-19</v>
+      </c>
+      <c r="I6" t="n">
+        <v>3.026066277612952</v>
+      </c>
+      <c r="J6" t="inlineStr">
         <is>
           <t>c1cc(ccc1N1CCCCC1)N=Nc1ccc(cc1)N1CCCCC1</t>
         </is>
@@ -620,7 +660,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="H7" t="n">
+        <v>4.84829268292683e-19</v>
+      </c>
+      <c r="I7" t="n">
+        <v>3.026066277612952</v>
+      </c>
+      <c r="J7" t="inlineStr">
         <is>
           <t>c1cc(ccc1CCCC)N=Nc1ccc(cc1)N(CCO)CCO</t>
         </is>
@@ -652,7 +698,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="H8" t="n">
+        <v>5.506371191135734e-19</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3.4368065756823</v>
+      </c>
+      <c r="J8" t="inlineStr">
         <is>
           <t>C1CCN(C1)c1ccccc1N=Nc1cccn1C</t>
         </is>
@@ -677,10 +729,16 @@
       <c r="F9" t="inlineStr"/>
       <c r="G9" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4.766906474820144e-19</v>
+      </c>
+      <c r="I9" t="n">
+        <v>2.975269001969569</v>
+      </c>
+      <c r="J9" t="inlineStr">
         <is>
           <t>c1cc(N=Nc2c(cccc2)F)c(cc1N(CCO)CCC#N)C</t>
         </is>
@@ -705,10 +763,16 @@
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4.884029484029484e-19</v>
+      </c>
+      <c r="I10" t="n">
+        <v>3.048371434450394</v>
+      </c>
+      <c r="J10" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1ccc(cc1)C)N(CC)CC</t>
         </is>
@@ -732,7 +796,13 @@
       <c r="E11" t="inlineStr"/>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr"/>
-      <c r="H11" t="inlineStr">
+      <c r="H11" t="n">
+        <v>4.622790697674419e-19</v>
+      </c>
+      <c r="I11" t="n">
+        <v>2.885319008886769</v>
+      </c>
+      <c r="J11" t="inlineStr">
         <is>
           <t>n1c(oc2ccccc12)N=Nc1nc2ccccc2o1</t>
         </is>
@@ -760,7 +830,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
+      <c r="H12" t="n">
+        <v>3.352107925801012e-19</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2.092221203745886</v>
+      </c>
+      <c r="J12" t="inlineStr">
         <is>
           <t>O=S(=O)(OCCNc1c(C#N)cc(N=Nc2c(cc(cc2C#N)[N+](=O)[O-])Br)s1)C</t>
         </is>
@@ -784,7 +860,13 @@
       <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr"/>
-      <c r="H13" t="inlineStr">
+      <c r="H13" t="n">
+        <v>6.060365853658537e-19</v>
+      </c>
+      <c r="I13" t="n">
+        <v>3.78258284701619</v>
+      </c>
+      <c r="J13" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1ccc(cc1)C(=O)OC</t>
         </is>
@@ -812,7 +894,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="H14" t="n">
+        <v>4.559174311926606e-19</v>
+      </c>
+      <c r="I14" t="n">
+        <v>2.845612783993831</v>
+      </c>
+      <c r="J14" t="inlineStr">
         <is>
           <t>c1cc(ccc1C(=O)O)N=NC=1C(C)=C(C(N(CC)C=1NCCCOC)=O)C#N</t>
         </is>
@@ -837,10 +925,16 @@
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5.04517766497462e-19</v>
+      </c>
+      <c r="I15" t="n">
+        <v>3.148952217820585</v>
+      </c>
+      <c r="J15" t="inlineStr">
         <is>
           <t>c1(cc(ccc1N=Nc1cc(OC)ccc1)NCCC#N)C</t>
         </is>
@@ -872,7 +966,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
+      <c r="H16" t="n">
+        <v>6.738305084745764e-19</v>
+      </c>
+      <c r="I16" t="n">
+        <v>4.205719233292578</v>
+      </c>
+      <c r="J16" t="inlineStr">
         <is>
           <t>Clc1cc(cc(Cl)c1N=Nc1c(Cl)cccc1Cl)OC(=O)C</t>
         </is>
@@ -896,7 +996,13 @@
       <c r="E17" t="inlineStr"/>
       <c r="F17" t="inlineStr"/>
       <c r="G17" t="inlineStr"/>
-      <c r="H17" t="inlineStr">
+      <c r="H17" t="n">
+        <v>6.211875000000001e-19</v>
+      </c>
+      <c r="I17" t="n">
+        <v>3.877147418191595</v>
+      </c>
+      <c r="J17" t="inlineStr">
         <is>
           <t>c1c(N=Nc2cc(ccc2)F)cccc1F</t>
         </is>
@@ -928,7 +1034,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="H18" t="n">
+        <v>5.987349397590362e-19</v>
+      </c>
+      <c r="I18" t="n">
+        <v>3.737009559702742</v>
+      </c>
+      <c r="J18" t="inlineStr">
         <is>
           <t>FC(F)(F)c1cc(ccc1)N=Nc1c(n[nH]c1C)C</t>
         </is>
@@ -960,7 +1072,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
+      <c r="H19" t="n">
+        <v>5.460989010989012e-19</v>
+      </c>
+      <c r="I19" t="n">
+        <v>3.408481246761842</v>
+      </c>
+      <c r="J19" t="inlineStr">
         <is>
           <t>c1ccsc1N=Nc1cc(OC)ccc1</t>
         </is>
@@ -988,7 +1106,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
+      <c r="H20" t="n">
+        <v>4.040243902439025e-19</v>
+      </c>
+      <c r="I20" t="n">
+        <v>2.521721898010793</v>
+      </c>
+      <c r="J20" t="inlineStr">
         <is>
           <t>C(C)N(CC)OOSc1cc(c(OC)cc1)N=Nc1c(ccc2ccccc12)O</t>
         </is>
@@ -1013,10 +1137,16 @@
       <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4.124066390041494e-19</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2.574039779712262</v>
+      </c>
+      <c r="J21" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1cc2c3N(CCc3c1)CCC2)C(C)=O</t>
         </is>
@@ -1040,7 +1170,13 @@
       <c r="E22" t="inlineStr"/>
       <c r="F22" t="inlineStr"/>
       <c r="G22" t="inlineStr"/>
-      <c r="H22" t="inlineStr">
+      <c r="H22" t="n">
+        <v>5.03240506329114e-19</v>
+      </c>
+      <c r="I22" t="n">
+        <v>3.140980186889393</v>
+      </c>
+      <c r="J22" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1ccc(cc1)OC)NCCC#N</t>
         </is>
@@ -1068,7 +1204,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
+      <c r="H23" t="n">
+        <v>4.487133182844244e-19</v>
+      </c>
+      <c r="I23" t="n">
+        <v>2.800648247903635</v>
+      </c>
+      <c r="J23" t="inlineStr">
         <is>
           <t>c1cc(ccc1)-c1c(C#N)c(nc(O)c1N=Nc1ccc(cc1)C1C(=C(C)NC(=O)N1)C(=O)OCC)O</t>
         </is>
@@ -1092,7 +1234,13 @@
       <c r="E24" t="inlineStr"/>
       <c r="F24" t="inlineStr"/>
       <c r="G24" t="inlineStr"/>
-      <c r="H24" t="inlineStr">
+      <c r="H24" t="n">
+        <v>6.060365853658537e-19</v>
+      </c>
+      <c r="I24" t="n">
+        <v>3.78258284701619</v>
+      </c>
+      <c r="J24" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1nc2c(s1)cccc2</t>
         </is>
@@ -1117,10 +1265,16 @@
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H25" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>4.778365384615385e-19</v>
+      </c>
+      <c r="I25" t="n">
+        <v>2.982421090916612</v>
+      </c>
+      <c r="J25" t="inlineStr">
         <is>
           <t>FC(F)(F)c1ccccc1N=Nc1ccc(cc1)N(CC)CCC#N</t>
         </is>
@@ -1148,7 +1302,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="H26" t="n">
+        <v>5.951497005988024e-19</v>
+      </c>
+      <c r="I26" t="n">
+        <v>3.714632256950031</v>
+      </c>
+      <c r="J26" t="inlineStr">
         <is>
           <t>c1(cc(cc(F)c1)N=Nc1c(n[nH]c1C)C)F</t>
         </is>
@@ -1172,7 +1332,13 @@
       <c r="E27" t="inlineStr"/>
       <c r="F27" t="inlineStr"/>
       <c r="G27" t="inlineStr"/>
-      <c r="H27" t="inlineStr">
+      <c r="H27" t="n">
+        <v>6.270662460567824e-19</v>
+      </c>
+      <c r="I27" t="n">
+        <v>3.913839665051453</v>
+      </c>
+      <c r="J27" t="inlineStr">
         <is>
           <t>FC(F)(F)c1ccccc1N=Nc1ccccc1C(F)(F)F</t>
         </is>
@@ -1200,7 +1366,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
+      <c r="H28" t="n">
+        <v>6.154179566563468e-19</v>
+      </c>
+      <c r="I28" t="n">
+        <v>3.841136761056688</v>
+      </c>
+      <c r="J28" t="inlineStr">
         <is>
           <t>Fc1c(F)c(c(c(F)c1N=Nc1c(F)c(c(c(c1NCCO)F)F)F)F)F</t>
         </is>
@@ -1228,7 +1400,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="H29" t="n">
+        <v>4.256531049250535e-19</v>
+      </c>
+      <c r="I29" t="n">
+        <v>2.65671771696212</v>
+      </c>
+      <c r="J29" t="inlineStr">
         <is>
           <t>CCN(CC)c1cc(O)c(N=Nc2c(OC)ccc(SOON(CC)CC)c2)cc1</t>
         </is>
@@ -1256,7 +1434,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
+      <c r="H30" t="n">
+        <v>4.14125e-19</v>
+      </c>
+      <c r="I30" t="n">
+        <v>2.584764945461063</v>
+      </c>
+      <c r="J30" t="inlineStr">
         <is>
           <t>c1cc(ccc1C#N)N=Nc1sc(c(c1-c1ccccc1)C(OCC)=O)NCCBr</t>
         </is>
@@ -1281,10 +1465,16 @@
       <c r="F31" t="inlineStr"/>
       <c r="G31" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H31" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5.521666666666666e-19</v>
+      </c>
+      <c r="I31" t="n">
+        <v>3.446353260614751</v>
+      </c>
+      <c r="J31" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1c(ccc(c1)C)OC</t>
         </is>
@@ -1308,7 +1498,13 @@
       <c r="E32" t="inlineStr"/>
       <c r="F32" t="inlineStr"/>
       <c r="G32" t="inlineStr"/>
-      <c r="H32" t="inlineStr">
+      <c r="H32" t="n">
+        <v>3.307487520798669e-19</v>
+      </c>
+      <c r="I32" t="n">
+        <v>2.064371337473062</v>
+      </c>
+      <c r="J32" t="inlineStr">
         <is>
           <t>c1c(C#N)c(c(cc1[N+](=O)[O-])C#N)N=Nc1ccc(N(CC)CC)cc1OC</t>
         </is>
@@ -1336,7 +1532,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
+      <c r="H33" t="n">
+        <v>4.437053571428572e-19</v>
+      </c>
+      <c r="I33" t="n">
+        <v>2.769391012993997</v>
+      </c>
+      <c r="J33" t="inlineStr">
         <is>
           <t>Fc1c(F)c(c(F)c(F)c1SCCS)N=Nc1ccc(cc1)N(C)C</t>
         </is>
@@ -1368,7 +1570,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
+      <c r="H34" t="n">
+        <v>5.916071428571429e-19</v>
+      </c>
+      <c r="I34" t="n">
+        <v>3.692521350658662</v>
+      </c>
+      <c r="J34" t="inlineStr">
         <is>
           <t>c1cccc(c1N=Nc1c(C)[nH]nc1C)C</t>
         </is>
@@ -1392,7 +1600,13 @@
       <c r="E35" t="inlineStr"/>
       <c r="F35" t="inlineStr"/>
       <c r="G35" t="inlineStr"/>
-      <c r="H35" t="inlineStr">
+      <c r="H35" t="n">
+        <v>5.846470588235294e-19</v>
+      </c>
+      <c r="I35" t="n">
+        <v>3.649079923003854</v>
+      </c>
+      <c r="J35" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1sc2cc(ccc2n1)[N+]([O-])=O</t>
         </is>
@@ -1417,10 +1631,16 @@
       <c r="F36" t="inlineStr"/>
       <c r="G36" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H36" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>5.372432432432432e-19</v>
+      </c>
+      <c r="I36" t="n">
+        <v>3.353208577895433</v>
+      </c>
+      <c r="J36" t="inlineStr">
         <is>
           <t>COc1c(ccc(OC)c1)N=Nc1c(OC)cc(OC)cc1</t>
         </is>
@@ -1448,7 +1668,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
+      <c r="H37" t="n">
+        <v>3.750566037735849e-19</v>
+      </c>
+      <c r="I37" t="n">
+        <v>2.340919195889265</v>
+      </c>
+      <c r="J37" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1c(cc([N+](=O)[O-])cc1)[N+](=O)[O-])N(CC)CC</t>
         </is>
@@ -1473,10 +1699,16 @@
       <c r="F38" t="inlineStr"/>
       <c r="G38" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H38" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>6.173291925465839e-19</v>
+      </c>
+      <c r="I38" t="n">
+        <v>3.853065757209039</v>
+      </c>
+      <c r="J38" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1cc(C)ccc1</t>
         </is>
@@ -1501,10 +1733,16 @@
       <c r="F39" t="inlineStr"/>
       <c r="G39" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H39" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4.580184331797236e-19</v>
+      </c>
+      <c r="I39" t="n">
+        <v>2.858726206961545</v>
+      </c>
+      <c r="J39" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1ccc2c(CCCN2)c1)Cl</t>
         </is>
@@ -1532,7 +1770,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="H40" t="n">
+        <v>4.981954887218046e-19</v>
+      </c>
+      <c r="I40" t="n">
+        <v>3.109491663712558</v>
+      </c>
+      <c r="J40" t="inlineStr">
         <is>
           <t>c1nc2c(cc1)c(N=Nc1c(Cl)cc(cc1)Cl)ccc2O</t>
         </is>
@@ -1560,7 +1804,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
+      <c r="H41" t="n">
+        <v>3.56236559139785e-19</v>
+      </c>
+      <c r="I41" t="n">
+        <v>2.223453716525646</v>
+      </c>
+      <c r="J41" t="inlineStr">
         <is>
           <t>c1ccccc1-c1c(c(NCCBr)sc1N=Nc1c(cc(cc1Br)[N+]([O-])=O)C#N)C(OCC)=O</t>
         </is>
@@ -1584,7 +1834,13 @@
       <c r="E42" t="inlineStr"/>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr"/>
-      <c r="H42" t="inlineStr">
+      <c r="H42" t="n">
+        <v>4.666197183098592e-19</v>
+      </c>
+      <c r="I42" t="n">
+        <v>2.912411206153311</v>
+      </c>
+      <c r="J42" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1ccc(cc1)N(CC)CC)N(CC)CC</t>
         </is>
@@ -1609,10 +1865,16 @@
       <c r="F43" t="inlineStr"/>
       <c r="G43" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H43" t="inlineStr">
+          <t>methanol</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>4.778365384615385e-19</v>
+      </c>
+      <c r="I43" t="n">
+        <v>2.982421090916612</v>
+      </c>
+      <c r="J43" t="inlineStr">
         <is>
           <t>FC(F)(F)c1ccc(cc1)N=Nc1ccc(cc1)N(CCC#N)CC</t>
         </is>
@@ -1637,10 +1899,16 @@
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H44" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4.569655172413793e-19</v>
+      </c>
+      <c r="I44" t="n">
+        <v>2.852154422577725</v>
+      </c>
+      <c r="J44" t="inlineStr">
         <is>
           <t>c1cc(ccc1C(=O)C)N=Nc1ccc(cc1)N(CCCl)CCCl</t>
         </is>
@@ -1665,10 +1933,16 @@
       <c r="F45" t="inlineStr"/>
       <c r="G45" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H45" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3.9756e-19</v>
+      </c>
+      <c r="I45" t="n">
+        <v>2.481374347642621</v>
+      </c>
+      <c r="J45" t="inlineStr">
         <is>
           <t>C(C)N(CC)c1ccc(cc1)N=Nc1ccc(c(C#N)c1)C#N</t>
         </is>
@@ -1696,7 +1970,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="H46" t="n">
+        <v>4.677176470588236e-19</v>
+      </c>
+      <c r="I46" t="n">
+        <v>2.919263938403084</v>
+      </c>
+      <c r="J46" t="inlineStr">
         <is>
           <t>CC(C)OCCCN1C(NCCCOC)=C(C(=C(C1=O)C#N)C)N=Nc1c(C(=O)OC)cccc1</t>
         </is>
@@ -1720,7 +2000,13 @@
       <c r="E47" t="inlineStr"/>
       <c r="F47" t="inlineStr"/>
       <c r="G47" t="inlineStr"/>
-      <c r="H47" t="inlineStr">
+      <c r="H47" t="n">
+        <v>5.96936936936937e-19</v>
+      </c>
+      <c r="I47" t="n">
+        <v>3.725787308772704</v>
+      </c>
+      <c r="J47" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1ccccc1)[N+]([O-])=O</t>
         </is>
@@ -1745,10 +2031,16 @@
       <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H48" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5.712068965517241e-19</v>
+      </c>
+      <c r="I48" t="n">
+        <v>3.565193028222156</v>
+      </c>
+      <c r="J48" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1ccc(cc1)NC(=O)C</t>
         </is>
@@ -1772,7 +2064,13 @@
       <c r="E49" t="inlineStr"/>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr"/>
-      <c r="H49" t="inlineStr">
+      <c r="H49" t="n">
+        <v>5.59943661971831e-19</v>
+      </c>
+      <c r="I49" t="n">
+        <v>3.494893447383973</v>
+      </c>
+      <c r="J49" t="inlineStr">
         <is>
           <t>c1cc(ccc1O)N=Nc1ccc(cc1)O</t>
         </is>
@@ -1804,7 +2102,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
+      <c r="H50" t="n">
+        <v>6.412258064516129e-19</v>
+      </c>
+      <c r="I50" t="n">
+        <v>4.002216689746162</v>
+      </c>
+      <c r="J50" t="inlineStr">
         <is>
           <t>c1cc(ccc1)N=Nc1nn(C)nn1</t>
         </is>
@@ -1828,7 +2132,13 @@
       <c r="E51" t="inlineStr"/>
       <c r="F51" t="inlineStr"/>
       <c r="G51" t="inlineStr"/>
-      <c r="H51" t="inlineStr">
+      <c r="H51" t="n">
+        <v>4.896059113300492e-19</v>
+      </c>
+      <c r="I51" t="n">
+        <v>3.055879738476134</v>
+      </c>
+      <c r="J51" t="inlineStr">
         <is>
           <t>c1cc(ccc1NC(C)=O)N=Nc1sc2cc(ccc2n1)[N+]([O-])=O</t>
         </is>
@@ -1856,7 +2166,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="H52" t="n">
+        <v>4.497285067873303e-19</v>
+      </c>
+      <c r="I52" t="n">
+        <v>2.806984556156811</v>
+      </c>
+      <c r="J52" t="inlineStr">
         <is>
           <t>c1cc(ccc1C1NC(=O)NC(C)=C1C(OCC)=O)N=NC1C(N(CCC)C(=O)C(C#N)=C1C)=O</t>
         </is>
@@ -1884,7 +2200,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
+      <c r="H53" t="n">
+        <v>5.987349397590362e-19</v>
+      </c>
+      <c r="I53" t="n">
+        <v>3.737009559702742</v>
+      </c>
+      <c r="J53" t="inlineStr">
         <is>
           <t>c1(C)[nH]nc(C)c1N=Nc1ccccc1O</t>
         </is>
@@ -1909,10 +2231,16 @@
       <c r="F54" t="inlineStr"/>
       <c r="G54" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5.203664921465969e-19</v>
+      </c>
+      <c r="I54" t="n">
+        <v>3.247872182778299</v>
+      </c>
+      <c r="J54" t="inlineStr">
         <is>
           <t>C(C#N)CN(CCC#N)c1ccc(cc1)N=Nc1ccccc1</t>
         </is>
@@ -1940,7 +2268,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
+      <c r="H55" t="n">
+        <v>4.456950672645739e-19</v>
+      </c>
+      <c r="I55" t="n">
+        <v>2.781809806774238</v>
+      </c>
+      <c r="J55" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1c(C)c(C#N)c(NCCCOC)nc1NCCCOC)C(O)=O</t>
         </is>
@@ -1965,10 +2299,16 @@
       <c r="F56" t="inlineStr"/>
       <c r="G56" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>4.932506203473946e-19</v>
+      </c>
+      <c r="I56" t="n">
+        <v>3.078628222881664</v>
+      </c>
+      <c r="J56" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1ccc(cc1C)NCCC#N)NC(=O)C</t>
         </is>
@@ -1996,7 +2336,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
+      <c r="H57" t="n">
+        <v>3.951888667992048e-19</v>
+      </c>
+      <c r="I57" t="n">
+        <v>2.466574898253102</v>
+      </c>
+      <c r="J57" t="inlineStr">
         <is>
           <t>CCN(CC)c1ccc(N=Nc2nnc(C)s2)c(O)c1</t>
         </is>
@@ -2021,10 +2367,16 @@
       <c r="F58" t="inlineStr"/>
       <c r="G58" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
+          <t>methanol</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>4.580184331797236e-19</v>
+      </c>
+      <c r="I58" t="n">
+        <v>2.858726206961545</v>
+      </c>
+      <c r="J58" t="inlineStr">
         <is>
           <t>c1cc(ccc1N(CC)CCC#N)N=Nc1ccccc1C#N</t>
         </is>
@@ -2056,7 +2408,13 @@
           <t>dimethyl sulfoxide</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
+      <c r="H59" t="n">
+        <v>6.31047619047619e-19</v>
+      </c>
+      <c r="I59" t="n">
+        <v>3.938689440702573</v>
+      </c>
+      <c r="J59" t="inlineStr">
         <is>
           <t>C1CCN(C1)c1ccccc1N=Nc1c(C)onc1C</t>
         </is>
@@ -2081,10 +2439,16 @@
       <c r="F60" t="inlineStr"/>
       <c r="G60" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4.437053571428572e-19</v>
+      </c>
+      <c r="I60" t="n">
+        <v>2.769391012993997</v>
+      </c>
+      <c r="J60" t="inlineStr">
         <is>
           <t>c1cc(ccc1C(C)=O)N=Nc1cc2CCCN(CCC#N)c2cc1</t>
         </is>
@@ -2109,10 +2473,16 @@
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4.633566433566434e-19</v>
+      </c>
+      <c r="I61" t="n">
+        <v>2.892044694222168</v>
+      </c>
+      <c r="J61" t="inlineStr">
         <is>
           <t>c1c(NCCC#N)ccc(c1C)N=Nc1c(C#N)cccc1</t>
         </is>
@@ -2137,10 +2507,16 @@
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>5.163116883116883e-19</v>
+      </c>
+      <c r="I62" t="n">
+        <v>3.222564087847559</v>
+      </c>
+      <c r="J62" t="inlineStr">
         <is>
           <t>c1cc(ccc1O)N=Nc1ccc(cc1)N</t>
         </is>
@@ -2168,7 +2544,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
+      <c r="H63" t="n">
+        <v>4.517727272727273e-19</v>
+      </c>
+      <c r="I63" t="n">
+        <v>2.819743576866615</v>
+      </c>
+      <c r="J63" t="inlineStr">
         <is>
           <t>FC(F)(F)c1cc(ccc1N=Nc1c(c(c(s1)NCCOS(=O)(=O)C)C(N)=O)C)[N+](=O)[O-]</t>
         </is>
@@ -2193,10 +2575,16 @@
       <c r="F64" t="inlineStr"/>
       <c r="G64" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5.372432432432432e-19</v>
+      </c>
+      <c r="I64" t="n">
+        <v>3.353208577895433</v>
+      </c>
+      <c r="J64" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1cc(Cl)ccc1Cl)O</t>
         </is>
@@ -2221,10 +2609,16 @@
       <c r="F65" t="inlineStr"/>
       <c r="G65" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H65" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4.836496350364964e-19</v>
+      </c>
+      <c r="I65" t="n">
+        <v>3.018703585939928</v>
+      </c>
+      <c r="J65" t="inlineStr">
         <is>
           <t>FC(F)(F)c1ccc(cc1)N=Nc1ccc(NCCC#N)cc1C</t>
         </is>
@@ -2248,7 +2642,13 @@
       <c r="E66" t="inlineStr"/>
       <c r="F66" t="inlineStr"/>
       <c r="G66" t="inlineStr"/>
-      <c r="H66" t="inlineStr">
+      <c r="H66" t="n">
+        <v>3.852325581395349e-19</v>
+      </c>
+      <c r="I66" t="n">
+        <v>2.404432507405641</v>
+      </c>
+      <c r="J66" t="inlineStr">
         <is>
           <t>c1ccccc1-c1csc(N=Nc2c3cccnc3c(O)cc2)n1</t>
         </is>
@@ -2272,7 +2672,13 @@
       <c r="E67" t="inlineStr"/>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr"/>
-      <c r="H67" t="inlineStr">
+      <c r="H67" t="n">
+        <v>5.070918367346939e-19</v>
+      </c>
+      <c r="I67" t="n">
+        <v>3.165018300564567</v>
+      </c>
+      <c r="J67" t="inlineStr">
         <is>
           <t>C(CC#N)N(CCC#N)c1ccc(c(C)c1)N=Nc1ccccc1</t>
         </is>
@@ -2300,7 +2706,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H68" t="inlineStr">
+      <c r="H68" t="n">
+        <v>3.852325581395349e-19</v>
+      </c>
+      <c r="I68" t="n">
+        <v>2.404432507405641</v>
+      </c>
+      <c r="J68" t="inlineStr">
         <is>
           <t>c1cc(ccc1N(C)C)N=Nc1c(cc([N+](=O)[O-])cc1)[N+](=O)[O-]</t>
         </is>
@@ -2325,10 +2737,16 @@
       <c r="F69" t="inlineStr"/>
       <c r="G69" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H69" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4.3784140969163e-19</v>
+      </c>
+      <c r="I69" t="n">
+        <v>2.732791131765001</v>
+      </c>
+      <c r="J69" t="inlineStr">
         <is>
           <t>c1cc(ccc1C(=O)C)N=Nc1ccc(cc1)N(CC)C</t>
         </is>
@@ -2353,10 +2771,16 @@
       <c r="F70" t="inlineStr"/>
       <c r="G70" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H70" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4.920297029702971e-19</v>
+      </c>
+      <c r="I70" t="n">
+        <v>3.071007855993343</v>
+      </c>
+      <c r="J70" t="inlineStr">
         <is>
           <t>c1c(NCCC#N)ccc(c1C)N=Nc1c(cccc1)F</t>
         </is>
@@ -2384,7 +2808,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H71" t="inlineStr">
+      <c r="H71" t="n">
+        <v>4.098556701030929e-19</v>
+      </c>
+      <c r="I71" t="n">
+        <v>2.558117884167651</v>
+      </c>
+      <c r="J71" t="inlineStr">
         <is>
           <t>CCN(CC)c1ccc(N=Nc2ccc(cc2OC)[N+](=O)[O-])c(O)c1</t>
         </is>
@@ -2412,7 +2842,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H72" t="inlineStr">
+      <c r="H72" t="n">
+        <v>5.745086705202312e-19</v>
+      </c>
+      <c r="I72" t="n">
+        <v>3.585801080408412</v>
+      </c>
+      <c r="J72" t="inlineStr">
         <is>
           <t>c1ccccc1N=Nc1ccc(cc1)OC#CC#CC#C</t>
         </is>
@@ -2440,7 +2876,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="H73" t="n">
+        <v>4.744152744630072e-19</v>
+      </c>
+      <c r="I73" t="n">
+        <v>2.961067240623653</v>
+      </c>
+      <c r="J73" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1ccc(cc1)Br)N(C)C</t>
         </is>
@@ -2468,7 +2910,13 @@
           <t>ethanol</t>
         </is>
       </c>
-      <c r="H74" t="inlineStr">
+      <c r="H74" t="n">
+        <v>3.313e-19</v>
+      </c>
+      <c r="I74" t="n">
+        <v>2.067811956368851</v>
+      </c>
+      <c r="J74" t="inlineStr">
         <is>
           <t>Brc1cc(cc(Br)c1N=Nc1c(C)c(c(NCCOS(=O)(=O)C)s1)C#N)[N+]([O-])=O</t>
         </is>
@@ -2493,10 +2941,16 @@
       <c r="F75" t="inlineStr"/>
       <c r="G75" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H75" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>3.951888667992048e-19</v>
+      </c>
+      <c r="I75" t="n">
+        <v>2.466574898253102</v>
+      </c>
+      <c r="J75" t="inlineStr">
         <is>
           <t>c1cc(ccc1N(CC)CC)N=Nc1c(cccc1C#N)C#N</t>
         </is>
@@ -2521,10 +2975,16 @@
       <c r="F76" t="inlineStr"/>
       <c r="G76" t="inlineStr">
         <is>
-          <t>acetonitrile</t>
-        </is>
-      </c>
-      <c r="H76" t="inlineStr">
+          <t>ethanol</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>4.884029484029484e-19</v>
+      </c>
+      <c r="I76" t="n">
+        <v>3.048371434450394</v>
+      </c>
+      <c r="J76" t="inlineStr">
         <is>
           <t>c1cc(ccc1N(C)C)N=Nc1c(C)cccc1</t>
         </is>
@@ -2548,7 +3008,13 @@
       <c r="E77" t="inlineStr"/>
       <c r="F77" t="inlineStr"/>
       <c r="G77" t="inlineStr"/>
-      <c r="H77" t="inlineStr">
+      <c r="H77" t="n">
+        <v>4.407538802660754e-19</v>
+      </c>
+      <c r="I77" t="n">
+        <v>2.750969343284502</v>
+      </c>
+      <c r="J77" t="inlineStr">
         <is>
           <t>n1nc(N=Nc2c3c(cccc3)n(c2C)C)sc1SC</t>
         </is>
@@ -2572,7 +3038,13 @@
       <c r="E78" t="inlineStr"/>
       <c r="F78" t="inlineStr"/>
       <c r="G78" t="inlineStr"/>
-      <c r="H78" t="inlineStr">
+      <c r="H78" t="n">
+        <v>5.933731343283582e-19</v>
+      </c>
+      <c r="I78" t="n">
+        <v>3.703543802451672</v>
+      </c>
+      <c r="J78" t="inlineStr">
         <is>
           <t>c1ccc(N=Nc2sc3c(ccc(c3)[N+]([O-])=O)n2)c(C(=O)O)c1</t>
         </is>
@@ -2600,7 +3072,13 @@
           <t>acetonitrile</t>
         </is>
       </c>
-      <c r="H79" t="inlineStr">
+      <c r="H79" t="n">
+        <v>6.330573248407644e-19</v>
+      </c>
+      <c r="I79" t="n">
+        <v>3.951233037647486</v>
+      </c>
+      <c r="J79" t="inlineStr">
         <is>
           <t>FC(F)(F)c1cccc(N=Nc2c(noc2C)C)c1</t>
         </is>
@@ -2632,7 +3110,13 @@
           <t>water</t>
         </is>
       </c>
-      <c r="H80" t="inlineStr">
+      <c r="H80" t="n">
+        <v>5.343548387096774e-19</v>
+      </c>
+      <c r="I80" t="n">
+        <v>3.335180574788468</v>
+      </c>
+      <c r="J80" t="inlineStr">
         <is>
           <t>O=S(=O)(SCCOC(Nc1ccc(cc1)N=Nc1ccc(cc1)NC(=O)OCCSS(=O)(=O)C)=O)C</t>
         </is>
@@ -2656,7 +3140,13 @@
       <c r="E81" t="inlineStr"/>
       <c r="F81" t="inlineStr"/>
       <c r="G81" t="inlineStr"/>
-      <c r="H81" t="inlineStr">
+      <c r="H81" t="n">
+        <v>4.872058823529412e-19</v>
+      </c>
+      <c r="I81" t="n">
+        <v>3.040899935836545</v>
+      </c>
+      <c r="J81" t="inlineStr">
         <is>
           <t>c1cc(ccc1N=Nc1c(cccc1)Cl)NCCC#N</t>
         </is>
